--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -65,7 +65,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -78,7 +77,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
         </r>
@@ -975,39 +973,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1470,7 +1435,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -15793,8 +15758,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15830,7 +15795,7 @@
         <v>45672</v>
       </c>
       <c r="D2" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15844,8 +15809,8 @@
       <c r="C3" s="17" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+      <c r="D3" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15859,8 +15824,8 @@
       <c r="C4" s="15" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+      <c r="D4" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15874,8 +15839,8 @@
       <c r="C5" s="15" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+      <c r="D5" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15889,8 +15854,8 @@
       <c r="C6" s="15" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+      <c r="D6" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15904,8 +15869,8 @@
       <c r="C7" s="15" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+      <c r="D7" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15919,8 +15884,8 @@
       <c r="C8" s="15" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+      <c r="D8" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15934,8 +15899,8 @@
       <c r="C9" s="15" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+      <c r="D9" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15949,8 +15914,8 @@
       <c r="C10" s="12" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+      <c r="D10" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15964,8 +15929,8 @@
       <c r="C11" s="12" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+      <c r="D11" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15979,8 +15944,8 @@
       <c r="C12" s="12" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+      <c r="D12" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15994,8 +15959,8 @@
       <c r="C13" s="12" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+      <c r="D13" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -313,10 +313,10 @@
     <t xml:space="preserve">DEV.Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
+    <t xml:space="preserve">Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -1149,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5806,8 +5806,8 @@
   </sheetPr>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9010,7 +9010,7 @@
   </sheetPr>
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C152" activeCellId="0" sqref="C152"/>
     </sheetView>
   </sheetViews>
@@ -11680,8 +11680,8 @@
   </sheetPr>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14313,7 +14313,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14708,7 +14708,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15167,7 +15167,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15562,7 +15562,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15758,8 +15758,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -257,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="185">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -706,53 +712,124 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is T:end OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:end OK?</t>
-  </si>
-  <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -800,8 +877,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +914,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -953,10 +1043,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,7 +1114,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1149,7 +1239,7 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1435,7 +1525,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5491,7 +5581,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5683,22 +5773,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="15.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5711,35 +5797,8 @@
       <c r="C1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,43 +5808,551 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="14" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="14" t="n">
-        <v>46053</v>
-      </c>
-      <c r="F2" s="14" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="14" t="n">
-        <v>46053</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="21" t="n">
+      <c r="C2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="21" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="22" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="23" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="23" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="23" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5806,7 +6373,7 @@
   </sheetPr>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9010,7 +9577,7 @@
   </sheetPr>
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C152" activeCellId="0" sqref="C152"/>
     </sheetView>
   </sheetViews>
@@ -11680,7 +12247,7 @@
   </sheetPr>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14312,7 +14879,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14707,7 +15274,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15166,7 +15733,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -15561,7 +16128,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15758,7 +16325,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15809,7 +16376,7 @@
       <c r="C3" s="17" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15824,7 +16391,7 @@
       <c r="C4" s="15" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15839,7 +16406,7 @@
       <c r="C5" s="15" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15854,7 +16421,7 @@
       <c r="C6" s="15" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15869,7 +16436,7 @@
       <c r="C7" s="15" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15884,7 +16451,7 @@
       <c r="C8" s="15" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15899,7 +16466,7 @@
       <c r="C9" s="15" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15914,7 +16481,7 @@
       <c r="C10" s="12" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15929,7 +16496,7 @@
       <c r="C11" s="12" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15944,7 +16511,7 @@
       <c r="C12" s="12" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15959,7 +16526,7 @@
       <c r="C13" s="12" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -5775,8 +5775,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6030,7 +6030,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6082,7 +6082,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="14" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
@@ -6211,7 +6212,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6282,7 +6283,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16325,8 +16326,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1239,7 +1239,7 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1525,7 +1525,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -5581,7 +5581,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5775,7 +5775,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5834,8 +5834,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5894,7 +5894,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="14" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>160</v>
@@ -5932,8 +5933,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5991,7 +5992,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="14" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>163</v>
@@ -6029,8 +6031,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6115,7 +6117,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -6212,7 +6214,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6283,7 +6285,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6374,7 +6376,7 @@
   </sheetPr>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9578,7 +9580,7 @@
   </sheetPr>
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C152" activeCellId="0" sqref="C152"/>
     </sheetView>
   </sheetViews>
@@ -12248,7 +12250,7 @@
   </sheetPr>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14880,7 +14882,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -15275,7 +15277,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15734,7 +15736,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -16129,7 +16131,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -16326,7 +16328,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="185">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -6031,7 +6031,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6115,16 +6115,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,25 +6141,13 @@
         <v>154</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,28 +6160,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="14" t="n">
-        <v>46053</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="23" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="23" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2036,7 +2036,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7779,7 +7779,7 @@
   </sheetPr>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="188">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -714,10 +714,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1234,7 +1240,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="D1:D2 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,10 +1462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,8 +1473,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1481,8 +1487,11 @@
       <c r="C1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="8" t="s">
         <v>150</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,9 +1502,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="19" t="n">
+        <v>152</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="19" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46053</v>
       </c>
@@ -1519,7 +1531,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1535,13 +1547,13 @@
         <v>148</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>18</v>
@@ -1550,19 +1562,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,10 +1595,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.3</v>
@@ -1596,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1631,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,16 +1642,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>18</v>
@@ -1648,19 +1660,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,10 +1693,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.3</v>
@@ -1694,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1717,7 +1729,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="1" sqref="D1:D2 I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,16 +1740,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>18</v>
@@ -1746,13 +1758,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1815,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1814,25 +1826,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1858,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>0.9</v>
@@ -1874,7 +1886,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1885,25 +1897,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,10 +1929,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>4</v>
@@ -1945,7 +1957,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1959,34 +1971,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,16 +2012,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.5</v>
@@ -2036,8 +2048,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2048,19 +2060,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2108,7 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+      <selection pane="topLeft" activeCell="B78" activeCellId="1" sqref="D1:D2 B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5301,7 +5313,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="D1:D2 H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7780,7 +7792,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10342,7 +10354,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10469,7 +10481,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10667,7 +10679,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D2 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11033,7 +11045,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="D1:D2 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15047,7 +15059,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="189">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -726,6 +727,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -735,6 +739,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -742,12 +752,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -965,7 +969,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1047,10 +1051,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="D1:D2 E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,8 +1464,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1528,32 +1528,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>18</v>
@@ -1561,53 +1559,36 @@
       <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>45658</v>
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
       </c>
       <c r="F2" s="12" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="21" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="21" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1628,86 +1609,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="5" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1726,74 +1664,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="1" sqref="D1:D2 I27"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="21" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1812,16 +1718,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,41 +1736,11 @@
         <v>168</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1883,59 +1760,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="5" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1954,80 +1814,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="D2" s="5" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2046,46 +1868,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2108,7 +1986,7 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="1" sqref="D1:D2 B78"/>
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5313,7 +5191,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="D1:D2 H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7792,7 +7670,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10354,7 +10232,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10481,7 +10359,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10679,7 +10557,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D2 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11045,7 +10923,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="D1:D2 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15059,7 +14937,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
+++ b/ampl-data-input-excel/14-tastks109/14-tastks109.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="D1:D2 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,8 +1464,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1817,7 +1817,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,8 +1944,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,7 +1986,7 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+      <selection pane="topLeft" activeCell="B78" activeCellId="1" sqref="D1:D2 B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5191,7 +5191,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="D1:D2 H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7670,7 +7670,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10232,7 +10232,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10359,7 +10359,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10557,7 +10557,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D2 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10923,7 +10923,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="D1:D2 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14937,7 +14937,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
